--- a/forms/contact/county_officer-edit.xlsx
+++ b/forms/contact/county_officer-edit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms August 2022\config-covid-community-testing-master_For Review\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>list_name</t>
   </si>
@@ -367,42 +367,6 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t>id_community_unit</t>
-  </si>
-  <si>
-    <t>db:community_unit</t>
-  </si>
-  <si>
-    <t>Select Community Unit</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'community_unit')</t>
-  </si>
-  <si>
-    <t>id_chw_area</t>
-  </si>
-  <si>
-    <t>db:chw_area</t>
-  </si>
-  <si>
-    <t>Select CHW Area</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'chw_area')</t>
-  </si>
-  <si>
-    <t>Select Household</t>
-  </si>
-  <si>
-    <t>id_house_hold</t>
-  </si>
-  <si>
-    <t>db:house_hold</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'house_hold')</t>
-  </si>
-  <si>
     <t>community_unit</t>
   </si>
   <si>
@@ -583,7 +547,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -630,126 +614,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF980000"/>
-          <bgColor rgb="FF980000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1019,26 +883,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
@@ -1295,13 +1139,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M926"/>
+  <dimension ref="A1:M923"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,23 +1627,15 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>113</v>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1808,22 +1644,20 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>117</v>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>116</v>
+      <c r="B22" s="10" t="s">
+        <v>87</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>118</v>
+      <c r="C22" s="10" t="s">
+        <v>88</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>78</v>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1833,82 +1667,88 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>122</v>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>62</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>121</v>
+      <c r="B23" s="10" t="s">
+        <v>90</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>120</v>
+      <c r="C23" s="10" t="s">
+        <v>28</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18" t="s">
-        <v>123</v>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="10" t="s">
+        <v>91</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1916,276 +1756,252 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="10" t="s">
-        <v>91</v>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>94</v>
       </c>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>62</v>
+      <c r="B27" s="14" t="s">
+        <v>95</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="b">
+        <f t="shared" ref="G27:G28" si="0">TRUE</f>
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>28</v>
+      <c r="H27" s="14" t="s">
+        <v>97</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M27" s="8"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="b">
-        <f t="shared" ref="G30:G31" si="0">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16" t="b">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10" t="s">
         <v>104</v>
       </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>26</v>
+      <c r="A34" s="20" t="s">
+        <v>53</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>105</v>
+      <c r="B34" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>53</v>
+      <c r="A35" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>53</v>
+      <c r="A36" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="17"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="A38" s="16"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2196,26 +2012,24 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -2229,23 +2043,23 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="21"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -2260,7 +2074,7 @@
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -2275,9 +2089,9 @@
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -2290,7 +2104,7 @@
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -2320,9 +2134,9 @@
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -2335,7 +2149,7 @@
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -2350,7 +2164,7 @@
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -2409,18 +2223,18 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
@@ -2439,33 +2253,33 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
-      <c r="B56" s="8"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
@@ -2484,23 +2298,23 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -2515,7 +2329,7 @@
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -2530,7 +2344,7 @@
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -2545,7 +2359,7 @@
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -2560,7 +2374,7 @@
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -2575,7 +2389,7 @@
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2590,7 +2404,7 @@
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="21"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -2605,7 +2419,7 @@
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -2620,7 +2434,7 @@
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -2635,7 +2449,7 @@
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2648,19 +2462,19 @@
       <c r="M68" s="16"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
@@ -2693,24 +2507,24 @@
       <c r="M71" s="16"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -2725,7 +2539,7 @@
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="21"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -2740,7 +2554,7 @@
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -2755,47 +2569,47 @@
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
@@ -2806,86 +2620,86 @@
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="16"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
@@ -3608,63 +3422,63 @@
       <c r="M132" s="22"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="22"/>
+      <c r="A133" s="21"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="24"/>
+      <c r="M133" s="16"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
+      <c r="A134" s="21"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="22"/>
-      <c r="L135" s="22"/>
-      <c r="M135" s="22"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="24"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
       <c r="M136" s="16"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,7 +3500,7 @@
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -3698,49 +3512,49 @@
       <c r="M138" s="16"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="21"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-      <c r="M139" s="16"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="21"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="21"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
@@ -3803,49 +3617,49 @@
       <c r="M145" s="8"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="22"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="22"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+      <c r="E147" s="22"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="22"/>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
@@ -4373,49 +4187,49 @@
       <c r="M183" s="22"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-      <c r="H184" s="22"/>
-      <c r="I184" s="22"/>
-      <c r="J184" s="22"/>
-      <c r="K184" s="22"/>
-      <c r="L184" s="22"/>
-      <c r="M184" s="22"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="25"/>
+      <c r="L184" s="25"/>
+      <c r="M184" s="25"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="22"/>
-      <c r="G185" s="22"/>
-      <c r="H185" s="22"/>
-      <c r="I185" s="22"/>
-      <c r="J185" s="22"/>
-      <c r="K185" s="22"/>
-      <c r="L185" s="22"/>
-      <c r="M185" s="22"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="25"/>
+      <c r="F185" s="25"/>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="25"/>
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
-      <c r="H186" s="22"/>
-      <c r="I186" s="22"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="22"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
@@ -15472,244 +15286,139 @@
       <c r="L923" s="25"/>
       <c r="M923" s="25"/>
     </row>
-    <row r="924" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="25"/>
-      <c r="B924" s="25"/>
-      <c r="C924" s="25"/>
-      <c r="D924" s="26"/>
-      <c r="E924" s="25"/>
-      <c r="F924" s="25"/>
-      <c r="G924" s="25"/>
-      <c r="H924" s="25"/>
-      <c r="I924" s="25"/>
-      <c r="J924" s="25"/>
-      <c r="K924" s="25"/>
-      <c r="L924" s="25"/>
-      <c r="M924" s="25"/>
-    </row>
-    <row r="925" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="25"/>
-      <c r="B925" s="25"/>
-      <c r="C925" s="25"/>
-      <c r="D925" s="26"/>
-      <c r="E925" s="25"/>
-      <c r="F925" s="25"/>
-      <c r="G925" s="25"/>
-      <c r="H925" s="25"/>
-      <c r="I925" s="25"/>
-      <c r="J925" s="25"/>
-      <c r="K925" s="25"/>
-      <c r="L925" s="25"/>
-      <c r="M925" s="25"/>
-    </row>
-    <row r="926" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="25"/>
-      <c r="B926" s="25"/>
-      <c r="C926" s="25"/>
-      <c r="D926" s="26"/>
-      <c r="E926" s="25"/>
-      <c r="F926" s="25"/>
-      <c r="G926" s="25"/>
-      <c r="H926" s="25"/>
-      <c r="I926" s="25"/>
-      <c r="J926" s="25"/>
-      <c r="K926" s="25"/>
-      <c r="L926" s="25"/>
-      <c r="M926" s="25"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="expression" dxfId="45" priority="14">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="expression" dxfId="44" priority="15">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="42" priority="17">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$935, "begin group") = COUNTIF($A$1:$A$935, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="41" priority="18">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$926, "begin group") = COUNTIF($A$1:$A$935, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I22 I24:I926">
-    <cfRule type="expression" dxfId="40" priority="19">
+  <conditionalFormatting sqref="I1:I923">
+    <cfRule type="expression" dxfId="30" priority="19">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C22 C24:C926">
-    <cfRule type="expression" dxfId="39" priority="20">
+  <conditionalFormatting sqref="C1:C923">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B22 B24:B926">
-    <cfRule type="expression" dxfId="38" priority="21">
+  <conditionalFormatting sqref="B1:B923">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A22 A24:A926">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+  <conditionalFormatting sqref="A1:A923">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B22 B24:B926">
-    <cfRule type="expression" dxfId="36" priority="23">
-      <formula>COUNTIF($B$2:$B$934,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B2:B923">
+    <cfRule type="expression" dxfId="26" priority="23">
+      <formula>COUNTIF($B$2:$B$931,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="34" priority="25" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="24" priority="25" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="29" priority="30" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="19" priority="30" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="32" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="26" priority="33" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="16" priority="33" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H22 H24:H926">
-    <cfRule type="expression" dxfId="23" priority="36">
+  <conditionalFormatting sqref="H1:H923">
+    <cfRule type="expression" dxfId="13" priority="36">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="expression" dxfId="22" priority="37">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="expression" dxfId="12" priority="37">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22 A24:M926">
-    <cfRule type="expression" dxfId="21" priority="38">
+  <conditionalFormatting sqref="A1:M923">
+    <cfRule type="expression" dxfId="11" priority="38">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A23))))</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="1" priority="41">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$932, "begin group") = COUNTIF($A$1:$A$932, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="expression" dxfId="18" priority="3">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>AND($I23 = "", $A23 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="14" priority="7">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>COUNTIF($B$2:$B$934,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>AND(NOT($G23 = ""), $H23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:M23">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="0" priority="42">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$923, "begin group") = COUNTIF($A$1:$A$932, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D926">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D923">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15724,9 +15433,9 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16069,10 +15778,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -16103,10 +15812,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -16137,10 +15846,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -43692,47 +43401,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43789,7 +43498,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44804.600327546294</v>
+        <v>44811.60152222222</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>

--- a/forms/contact/county_officer-edit.xlsx
+++ b/forms/contact/county_officer-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
   <si>
     <t>list_name</t>
   </si>
@@ -253,9 +253,6 @@
     <t>selected(${change_parent}, 'yes')</t>
   </si>
   <si>
-    <t>db:national_office</t>
-  </si>
-  <si>
     <t>id_national_office</t>
   </si>
   <si>
@@ -265,12 +262,6 @@
     <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'national')</t>
   </si>
   <si>
-    <t>db-object bind-id-only</t>
-  </si>
-  <si>
-    <t>db:county_office</t>
-  </si>
-  <si>
     <t>id_county_office</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
   </si>
   <si>
     <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'county')</t>
-  </si>
-  <si>
-    <t>db:sub_county_office</t>
   </si>
   <si>
     <t>id_sub_county_office</t>
@@ -383,6 +371,51 @@
   </si>
   <si>
     <t>Household</t>
+  </si>
+  <si>
+    <t>id_community_unit</t>
+  </si>
+  <si>
+    <t>Select Community Unit</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'community_unit')</t>
+  </si>
+  <si>
+    <t>id_chw_area</t>
+  </si>
+  <si>
+    <t>Select CHW Area</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'chw_area')</t>
+  </si>
+  <si>
+    <t>id_house_hold</t>
+  </si>
+  <si>
+    <t>Select Household</t>
+  </si>
+  <si>
+    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'house_hold')</t>
+  </si>
+  <si>
+    <t>select-contact type-national_office</t>
+  </si>
+  <si>
+    <t>select-contact type-county_office</t>
+  </si>
+  <si>
+    <t>select-contact type-sub_county_office</t>
+  </si>
+  <si>
+    <t>select-contact type-community_unit</t>
+  </si>
+  <si>
+    <t>select-contact type-chw_area</t>
+  </si>
+  <si>
+    <t>select-contact type-house_hold</t>
   </si>
 </sst>
 </file>
@@ -547,27 +580,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -658,6 +671,415 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1139,13 +1561,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M923"/>
+  <dimension ref="A1:M926"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1576,7 @@
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="48.44140625" customWidth="1"/>
     <col min="5" max="5" width="52.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
     <col min="9" max="9" width="73.77734375" customWidth="1"/>
@@ -1373,9 +1795,7 @@
       <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1396,9 +1816,7 @@
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1554,20 +1972,20 @@
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1579,20 +1997,20 @@
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1604,20 +2022,20 @@
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1627,128 +2045,132 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1756,252 +2178,276 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="b">
+        <f t="shared" ref="G30:G31" si="0">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16" t="b">
-        <f t="shared" ref="G27:G28" si="0">TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16" t="b">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>53</v>
+      <c r="A34" s="10" t="s">
+        <v>26</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>110</v>
+      <c r="B34" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>46</v>
+      <c r="A35" s="20" t="s">
+        <v>53</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="17"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>46</v>
+      <c r="A36" s="20" t="s">
+        <v>53</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="A37" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="21"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2012,24 +2458,26 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="21"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -2043,23 +2491,23 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -2074,7 +2522,7 @@
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -2089,9 +2537,9 @@
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -2104,7 +2552,7 @@
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -2134,9 +2582,9 @@
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -2149,7 +2597,7 @@
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -2164,7 +2612,7 @@
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -2223,18 +2671,18 @@
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
@@ -2253,33 +2701,33 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
@@ -2298,23 +2746,23 @@
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -2329,7 +2777,7 @@
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="21"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -2344,7 +2792,7 @@
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -2359,7 +2807,7 @@
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="21"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -2374,7 +2822,7 @@
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -2389,7 +2837,7 @@
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="21"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2404,7 +2852,7 @@
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -2419,7 +2867,7 @@
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="21"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -2434,7 +2882,7 @@
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -2449,7 +2897,7 @@
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="21"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2462,19 +2910,19 @@
       <c r="M68" s="16"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
@@ -2507,24 +2955,24 @@
       <c r="M71" s="16"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="21"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -2539,7 +2987,7 @@
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -2554,7 +3002,7 @@
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="21"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -2569,47 +3017,47 @@
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="23"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
       <c r="I76" s="16"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="16"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="23"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
@@ -2620,86 +3068,86 @@
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="I79" s="16"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
@@ -3422,63 +3870,63 @@
       <c r="M132" s="22"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="21"/>
-      <c r="D133" s="21"/>
-      <c r="E133" s="21"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="16"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="22"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21"/>
-      <c r="C134" s="21"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
-      <c r="D135" s="21"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="21"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="22"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
-      <c r="H136" s="16"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
       <c r="I136" s="21"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="24"/>
       <c r="M136" s="16"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3500,7 +3948,7 @@
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="16"/>
+      <c r="D138" s="21"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -3512,49 +3960,49 @@
       <c r="M138" s="16"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-      <c r="M139" s="8"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
+      <c r="A140" s="21"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
+      <c r="A141" s="21"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
@@ -3617,49 +4065,49 @@
       <c r="M145" s="8"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="22"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="22"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="22"/>
-      <c r="H148" s="22"/>
-      <c r="I148" s="22"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="22"/>
-      <c r="L148" s="22"/>
-      <c r="M148" s="22"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
@@ -4187,49 +4635,49 @@
       <c r="M183" s="22"/>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="25"/>
-      <c r="F184" s="25"/>
-      <c r="G184" s="25"/>
-      <c r="H184" s="25"/>
-      <c r="I184" s="25"/>
-      <c r="J184" s="25"/>
-      <c r="K184" s="25"/>
-      <c r="L184" s="25"/>
-      <c r="M184" s="25"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="22"/>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="25"/>
-      <c r="F185" s="25"/>
-      <c r="G185" s="25"/>
-      <c r="H185" s="25"/>
-      <c r="I185" s="25"/>
-      <c r="J185" s="25"/>
-      <c r="K185" s="25"/>
-      <c r="L185" s="25"/>
-      <c r="M185" s="25"/>
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="E185" s="22"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="22"/>
+      <c r="J185" s="22"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="22"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="25"/>
-      <c r="F186" s="25"/>
-      <c r="G186" s="25"/>
-      <c r="H186" s="25"/>
-      <c r="I186" s="25"/>
-      <c r="J186" s="25"/>
-      <c r="K186" s="25"/>
-      <c r="L186" s="25"/>
-      <c r="M186" s="25"/>
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="E186" s="22"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="22"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="22"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
@@ -15286,139 +15734,369 @@
       <c r="L923" s="25"/>
       <c r="M923" s="25"/>
     </row>
+    <row r="924" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A924" s="25"/>
+      <c r="B924" s="25"/>
+      <c r="C924" s="25"/>
+      <c r="D924" s="26"/>
+      <c r="E924" s="25"/>
+      <c r="F924" s="25"/>
+      <c r="G924" s="25"/>
+      <c r="H924" s="25"/>
+      <c r="I924" s="25"/>
+      <c r="J924" s="25"/>
+      <c r="K924" s="25"/>
+      <c r="L924" s="25"/>
+      <c r="M924" s="25"/>
+    </row>
+    <row r="925" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A925" s="25"/>
+      <c r="B925" s="25"/>
+      <c r="C925" s="25"/>
+      <c r="D925" s="26"/>
+      <c r="E925" s="25"/>
+      <c r="F925" s="25"/>
+      <c r="G925" s="25"/>
+      <c r="H925" s="25"/>
+      <c r="I925" s="25"/>
+      <c r="J925" s="25"/>
+      <c r="K925" s="25"/>
+      <c r="L925" s="25"/>
+      <c r="M925" s="25"/>
+    </row>
+    <row r="926" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A926" s="25"/>
+      <c r="B926" s="25"/>
+      <c r="C926" s="25"/>
+      <c r="D926" s="26"/>
+      <c r="E926" s="25"/>
+      <c r="F926" s="25"/>
+      <c r="G926" s="25"/>
+      <c r="H926" s="25"/>
+      <c r="I926" s="25"/>
+      <c r="J926" s="25"/>
+      <c r="K926" s="25"/>
+      <c r="L926" s="25"/>
+      <c r="M926" s="25"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="expression" dxfId="33" priority="14">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="expression" dxfId="70" priority="53">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="expression" dxfId="32" priority="15">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="expression" dxfId="69" priority="54">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I923">
-    <cfRule type="expression" dxfId="30" priority="19">
+  <conditionalFormatting sqref="I1:I926">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C923">
-    <cfRule type="expression" dxfId="29" priority="20">
+  <conditionalFormatting sqref="C1:C20 C24:C926">
+    <cfRule type="expression" dxfId="66" priority="59">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B923">
-    <cfRule type="expression" dxfId="28" priority="21">
+  <conditionalFormatting sqref="B1:B20 B24:B926">
+    <cfRule type="expression" dxfId="65" priority="60">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A923">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+  <conditionalFormatting sqref="A1:A17 A24:A926">
+    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B923">
-    <cfRule type="expression" dxfId="26" priority="23">
-      <formula>COUNTIF($B$2:$B$931,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B2:B20 B24:B926">
+    <cfRule type="expression" dxfId="63" priority="62">
+      <formula>COUNTIF($B$2:$B$934,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="24" priority="25" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="61" priority="64" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="notEqual">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="66" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="notEqual">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="19" priority="30" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="56" priority="69" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="54" priority="71" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="16" priority="33" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="53" priority="72" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="52" priority="73" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="51" priority="74" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H923">
-    <cfRule type="expression" dxfId="13" priority="36">
+  <conditionalFormatting sqref="H1:H926">
+    <cfRule type="expression" dxfId="50" priority="75">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="expression" dxfId="12" priority="37">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="expression" dxfId="49" priority="76">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M923">
-    <cfRule type="expression" dxfId="11" priority="38">
+  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
+    <cfRule type="expression" dxfId="48" priority="77">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="41">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$932, "begin group") = COUNTIF($A$1:$A$932, "end group"))</formula>
+    <cfRule type="expression" dxfId="47" priority="80">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$935, "begin group") = COUNTIF($A$1:$A$935, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="42">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$923, "begin group") = COUNTIF($A$1:$A$932, "end group")))</formula>
+    <cfRule type="expression" dxfId="46" priority="81">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$926, "begin group") = COUNTIF($A$1:$A$935, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(B21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="expression" dxfId="44" priority="31">
+      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="expression" dxfId="43" priority="32">
+      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="expression" dxfId="41" priority="34">
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22">
+    <cfRule type="expression" dxfId="40" priority="35">
+      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $B21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22">
+    <cfRule type="expression" dxfId="39" priority="37">
+      <formula>COUNTIF($B$2:$B$934,B21)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E22">
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(B23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="expression" dxfId="35" priority="21">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="expression" dxfId="34" priority="22">
+      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="32" priority="24">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="31" priority="25">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>COUNTIF($B$2:$B$934,B23)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="expression" dxfId="29" priority="28">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="expression" dxfId="26" priority="14">
+      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="expression" dxfId="25" priority="15">
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A23">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(F18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="19" priority="8">
+      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="18" priority="9">
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="16" priority="11">
+      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(F19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F23">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D923">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D926">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15433,9 +16111,9 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15778,10 +16456,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -15812,10 +16490,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -15846,10 +16524,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -43401,47 +44079,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43458,7 +44136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43498,7 +44176,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44811.60152222222</v>
+        <v>44812.443527083335</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>

--- a/forms/contact/county_officer-edit.xlsx
+++ b/forms/contact/county_officer-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
   <si>
     <t>list_name</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>person_name</t>
-  </si>
-  <si>
-    <t>../../person/name</t>
   </si>
   <si>
     <t>person_place_name</t>
@@ -1563,11 +1560,11 @@
   </sheetPr>
   <dimension ref="A1:M926"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18:F23"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1799,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1814,7 +1811,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="8"/>
@@ -1823,7 +1820,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1835,20 +1832,20 @@
         <v>40</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1868,7 +1865,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1891,7 +1888,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1903,13 +1900,13 @@
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
@@ -1924,18 +1921,18 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1947,20 +1944,20 @@
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1975,17 +1972,17 @@
         <v>40</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2000,17 +1997,17 @@
         <v>40</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2025,17 +2022,17 @@
         <v>40</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2050,17 +2047,17 @@
         <v>40</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -2075,17 +2072,17 @@
         <v>40</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -2100,17 +2097,17 @@
         <v>40</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -2142,15 +2139,15 @@
         <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -2162,10 +2159,10 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>28</v>
@@ -2179,13 +2176,13 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>1</v>
@@ -2208,10 +2205,10 @@
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>28</v>
@@ -2225,7 +2222,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M28" s="8"/>
     </row>
@@ -2237,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>24</v>
@@ -2254,13 +2251,13 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -2270,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -2280,13 +2277,13 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
@@ -2309,10 +2306,10 @@
         <v>40</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -2330,15 +2327,15 @@
         <v>40</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2353,7 +2350,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>28</v>
@@ -2361,7 +2358,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2376,7 +2373,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>28</v>
@@ -2387,7 +2384,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2399,7 +2396,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>28</v>
@@ -2410,7 +2407,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2422,7 +2419,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>28</v>
@@ -2433,7 +2430,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -16111,7 +16108,7 @@
   </sheetPr>
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:C13"/>
     </sheetView>
@@ -16456,10 +16453,10 @@
         <v>43</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -16490,10 +16487,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -16524,10 +16521,10 @@
         <v>43</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -44176,7 +44173,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44812.443527083335</v>
+        <v>44837.645338425929</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>

--- a/forms/contact/county_officer-edit.xlsx
+++ b/forms/contact/county_officer-edit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
   <si>
     <t>list_name</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>select-contact type-house_hold</t>
+  </si>
+  <si>
+    <t>../person_name</t>
   </si>
 </sst>
 </file>
@@ -1561,10 +1564,10 @@
   <dimension ref="A1:M926"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1802,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -44173,7 +44176,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44837.645338425929</v>
+        <v>44839.67260810185</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>

--- a/forms/contact/county_officer-edit.xlsx
+++ b/forms/contact/county_officer-edit.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>list_name</t>
   </si>
@@ -352,31 +352,16 @@
     <t>../../../inputs/user/facility_id</t>
   </si>
   <si>
-    <t>community_unit</t>
-  </si>
-  <si>
     <t>chw_area</t>
   </si>
   <si>
     <t>house_hold</t>
   </si>
   <si>
-    <t>Community Unit</t>
-  </si>
-  <si>
     <t>CHW Area</t>
   </si>
   <si>
     <t>Household</t>
-  </si>
-  <si>
-    <t>id_community_unit</t>
-  </si>
-  <si>
-    <t>Select Community Unit</t>
-  </si>
-  <si>
-    <t>selected(${change_parent}, 'yes') and selected(${edited_place_type}, 'community_unit')</t>
   </si>
   <si>
     <t>id_chw_area</t>
@@ -404,9 +389,6 @@
   </si>
   <si>
     <t>select-contact type-sub_county_office</t>
-  </si>
-  <si>
-    <t>select-contact type-community_unit</t>
   </si>
   <si>
     <t>select-contact type-chw_area</t>
@@ -580,7 +562,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -600,14 +590,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -676,67 +658,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC27BA0"/>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -759,83 +695,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -970,116 +829,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D2E9"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF9900"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCFE2F3"/>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1561,13 +1310,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M926"/>
+  <dimension ref="A1:M925"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1551,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1985,7 +1734,7 @@
         <v>75</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2010,7 +1759,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2035,7 +1784,7 @@
         <v>81</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2050,17 +1799,17 @@
         <v>40</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -2075,17 +1824,17 @@
         <v>40</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -2095,40 +1844,38 @@
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>40</v>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2139,25 +1886,25 @@
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>84</v>
-      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>28</v>
@@ -2179,7 +1926,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="10" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M26" s="8"/>
     </row>
@@ -2188,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>28</v>
@@ -2202,21 +1949,23 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="10" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2224,49 +1973,50 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="10" t="s">
-        <v>82</v>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>89</v>
       </c>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>40</v>
+      <c r="B29" s="14" t="s">
+        <v>90</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>3</v>
+      <c r="C29" s="14" t="s">
+        <v>91</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>88</v>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="b">
+        <f t="shared" ref="G29:G30" si="0">TRUE</f>
+        <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>24</v>
+      <c r="H29" s="14" t="s">
+        <v>92</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="b">
-        <f t="shared" ref="G30:G31" si="0">TRUE</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H30" s="14" t="s">
@@ -2280,24 +2030,19 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
@@ -2305,40 +2050,42 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>95</v>
+      <c r="B32" s="10" t="s">
+        <v>97</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>96</v>
+      <c r="C32" s="10" t="s">
+        <v>98</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="10" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2349,23 +2096,23 @@
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>26</v>
+      <c r="A34" s="20" t="s">
+        <v>53</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>100</v>
+      <c r="B34" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="10" t="s">
+        <v>102</v>
+      </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -2376,18 +2123,18 @@
         <v>53</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2399,7 +2146,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>28</v>
@@ -2410,7 +2157,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2418,23 +2165,17 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>53</v>
+      <c r="A37" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="17"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -2447,7 +2188,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="17"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -2458,51 +2199,49 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
@@ -2522,7 +2261,7 @@
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="21"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -2552,7 +2291,7 @@
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -2569,7 +2308,7 @@
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
@@ -2584,7 +2323,7 @@
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
@@ -2612,7 +2351,7 @@
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -2701,68 +2440,68 @@
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -2777,7 +2516,7 @@
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -2792,7 +2531,7 @@
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -2807,7 +2546,7 @@
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -2822,7 +2561,7 @@
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -2837,7 +2576,7 @@
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="17"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2852,7 +2591,7 @@
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="21"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -2867,7 +2606,7 @@
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -2882,7 +2621,7 @@
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -2897,7 +2636,7 @@
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2912,7 +2651,7 @@
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="21"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2927,7 +2666,7 @@
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -2940,39 +2679,39 @@
       <c r="M70" s="16"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -2987,7 +2726,7 @@
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="21"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -3002,7 +2741,7 @@
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -3017,7 +2756,7 @@
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="21"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
@@ -3032,7 +2771,7 @@
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
@@ -3047,24 +2786,24 @@
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
       <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="23"/>
-      <c r="E79" s="16"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
@@ -3077,13 +2816,13 @@
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="21"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="16"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
@@ -3095,7 +2834,7 @@
       <c r="C81" s="16"/>
       <c r="D81" s="23"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -3105,19 +2844,19 @@
       <c r="M81" s="23"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -3135,19 +2874,19 @@
       <c r="M83" s="8"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
@@ -3900,40 +3639,40 @@
       <c r="M134" s="22"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-      <c r="H135" s="22"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="22"/>
-      <c r="L135" s="22"/>
-      <c r="M135" s="22"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="16"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
-      <c r="D136" s="21"/>
-      <c r="E136" s="21"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="24"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
       <c r="M136" s="16"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
-      <c r="D137" s="16"/>
+      <c r="D137" s="21"/>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
       <c r="G137" s="16"/>
@@ -3948,7 +3687,7 @@
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
@@ -3990,19 +3729,19 @@
       <c r="M140" s="16"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
@@ -4095,19 +3834,19 @@
       <c r="M147" s="8"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+      <c r="E148" s="22"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="22"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
@@ -4665,19 +4404,19 @@
       <c r="M185" s="22"/>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="22"/>
-      <c r="G186" s="22"/>
-      <c r="H186" s="22"/>
-      <c r="I186" s="22"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="22"/>
-      <c r="L186" s="22"/>
-      <c r="M186" s="22"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="25"/>
+      <c r="F186" s="25"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="25"/>
@@ -15764,339 +15503,214 @@
       <c r="L925" s="25"/>
       <c r="M925" s="25"/>
     </row>
-    <row r="926" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="25"/>
-      <c r="B926" s="25"/>
-      <c r="C926" s="25"/>
-      <c r="D926" s="26"/>
-      <c r="E926" s="25"/>
-      <c r="F926" s="25"/>
-      <c r="G926" s="25"/>
-      <c r="H926" s="25"/>
-      <c r="I926" s="25"/>
-      <c r="J926" s="25"/>
-      <c r="K926" s="25"/>
-      <c r="L926" s="25"/>
-      <c r="M926" s="25"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="containsText" dxfId="71" priority="52" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="expression" dxfId="70" priority="53">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="expression" dxfId="48" priority="53">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="expression" dxfId="69" priority="54">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="expression" dxfId="47" priority="54">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="cellIs" dxfId="68" priority="55" operator="equal">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I926">
-    <cfRule type="expression" dxfId="67" priority="58">
+  <conditionalFormatting sqref="I1:I925">
+    <cfRule type="expression" dxfId="45" priority="58">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C20 C24:C926">
-    <cfRule type="expression" dxfId="66" priority="59">
+  <conditionalFormatting sqref="C23:C925 C1:C21">
+    <cfRule type="expression" dxfId="44" priority="59">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B20 B24:B926">
-    <cfRule type="expression" dxfId="65" priority="60">
+  <conditionalFormatting sqref="B23:B925 B1:B21">
+    <cfRule type="expression" dxfId="43" priority="60">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A17 A24:A926">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+  <conditionalFormatting sqref="A1:A925">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20 B24:B926">
-    <cfRule type="expression" dxfId="63" priority="62">
-      <formula>COUNTIF($B$2:$B$934,B2)&gt;1</formula>
+  <conditionalFormatting sqref="B23:B925 B2:B21">
+    <cfRule type="expression" dxfId="41" priority="62">
+      <formula>COUNTIF($B$2:$B$933,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="40" priority="63" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="61" priority="64" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="39" priority="64" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="65" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="66" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="67" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="68" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="56" priority="69" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="34" priority="69" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="55" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="70" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="54" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="71" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="53" priority="72" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="31" priority="72" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="52" priority="73" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="73" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="51" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="74" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H926">
-    <cfRule type="expression" dxfId="50" priority="75">
+  <conditionalFormatting sqref="H1:H925">
+    <cfRule type="expression" dxfId="28" priority="75">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="expression" dxfId="49" priority="76">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="expression" dxfId="27" priority="76">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M17 A24:M926 B18:E20 G18:M23">
-    <cfRule type="expression" dxfId="48" priority="77">
+  <conditionalFormatting sqref="A1:M17 A23:M925 G18:M22 B18:E21 A18:A22 F19:F22">
+    <cfRule type="expression" dxfId="26" priority="77">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $D1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $J1 = "", $K1 = "", $L1 = "", $M1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="47" priority="80">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$935, "begin group") = COUNTIF($A$1:$A$935, "end group"))</formula>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(B22))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="46" priority="81">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$926, "begin group") = COUNTIF($A$1:$A$935, "end group")))</formula>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="expression" dxfId="24" priority="21">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(B21))))</formula>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>AND($A22="end group", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="expression" dxfId="44" priority="31">
-      <formula>AND($A21="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="expression" dxfId="43" priority="32">
-      <formula>AND($A21="end group", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22">
-    <cfRule type="expression" dxfId="41" priority="34">
-      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $C21 = "")</formula>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="40" priority="35">
-      <formula>AND(AND(NOT($A21 = "end group"), NOT($A21 = "end repeat"), NOT($A21 = "")), $B21 = "")</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="20" priority="25">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $B22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22">
-    <cfRule type="expression" dxfId="39" priority="37">
-      <formula>COUNTIF($B$2:$B$934,B21)&gt;1</formula>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>COUNTIF($B$2:$B$933,B22)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="expression" dxfId="38" priority="38">
-      <formula>AND($A21="begin repeat", NOT($B21 = ""))</formula>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="expression" dxfId="18" priority="28">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:E22">
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>AND($A21="end repeat", $B21 = "", $C21 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="containsText" dxfId="36" priority="20" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(B23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="35" priority="21">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="34" priority="22">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="32" priority="24">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="30" priority="27">
-      <formula>COUNTIF($B$2:$B$934,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="29" priority="28">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:E23">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(A18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="expression" dxfId="26" priority="14">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="expression" dxfId="25" priority="15">
-      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A23">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+  <conditionalFormatting sqref="B22:E22">
+    <cfRule type="expression" dxfId="17" priority="29">
+      <formula>AND($A22="end repeat", $B22 = "", $C22 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="16" priority="11">
+    <cfRule type="expression" dxfId="12" priority="11">
       <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="calculate">
-      <formula>NOT(ISERROR(SEARCH(("calculate"),(F19))))</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="10" priority="99">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$934, "begin group") = COUNTIF($A$1:$A$934, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="13" priority="2">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F23">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="9" priority="100">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$925, "begin group") = COUNTIF($A$1:$A$934, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D926">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D925">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16109,11 +15723,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z996"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:C13"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16459,7 +16073,7 @@
         <v>107</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -16489,11 +16103,11 @@
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>111</v>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -16520,15 +16134,9 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -22210,12 +21818,12 @@
       <c r="Z215" s="5"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="E216" s="9"/>
-      <c r="F216" s="9"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="5"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -44048,34 +43656,6 @@
       <c r="X995" s="5"/>
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
-    </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="5"/>
-      <c r="G996" s="5"/>
-      <c r="H996" s="5"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-      <c r="N996" s="5"/>
-      <c r="O996" s="5"/>
-      <c r="P996" s="5"/>
-      <c r="Q996" s="5"/>
-      <c r="R996" s="5"/>
-      <c r="S996" s="5"/>
-      <c r="T996" s="5"/>
-      <c r="U996" s="5"/>
-      <c r="V996" s="5"/>
-      <c r="W996" s="5"/>
-      <c r="X996" s="5"/>
-      <c r="Y996" s="5"/>
-      <c r="Z996" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
@@ -44108,19 +43688,19 @@
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>COUNTIF($B$2:$B$999,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="0" priority="101">
+      <formula>COUNTIF($B$2:$B$998,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44176,7 +43756,7 @@
       </c>
       <c r="C2" s="11">
         <f ca="1">NOW()</f>
-        <v>44839.67260810185</v>
+        <v>44862.964787847224</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>31</v>
